--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -771,11 +771,11 @@
       </c>
       <c r="C3" s="32" t="inlineStr">
         <is>
-          <t>HexakiI</t>
+          <t>SakorRos</t>
         </is>
       </c>
       <c r="D3" s="33" t="n">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="E3" s="34" t="inlineStr">
         <is>
@@ -797,11 +797,11 @@
       </c>
       <c r="I3" s="37" t="inlineStr">
         <is>
-          <t>Grimkujow</t>
+          <t>nemenems</t>
         </is>
       </c>
       <c r="J3" s="38" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K3" s="34" t="inlineStr">
         <is>
@@ -827,11 +827,11 @@
       </c>
       <c r="C4" s="40" t="inlineStr">
         <is>
-          <t>SakorRos</t>
+          <t>HexakiI</t>
         </is>
       </c>
       <c r="D4" s="41" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E4" s="42" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="J4" s="45" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K4" s="42" t="inlineStr">
         <is>
@@ -883,11 +883,11 @@
       </c>
       <c r="C5" s="47" t="inlineStr">
         <is>
-          <t>GotagaTV</t>
+          <t>Julgane</t>
         </is>
       </c>
       <c r="D5" s="48" t="n">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="E5" s="34" t="inlineStr">
         <is>
@@ -909,11 +909,11 @@
       </c>
       <c r="I5" s="35" t="inlineStr">
         <is>
-          <t>CrocodyleTV</t>
+          <t>Kaatsup</t>
         </is>
       </c>
       <c r="J5" s="50" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K5" s="34" t="inlineStr">
         <is>
@@ -939,11 +939,11 @@
       </c>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>Julgane</t>
+          <t>GotagaTV</t>
         </is>
       </c>
       <c r="D6" s="45" t="n">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="E6" s="42" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="J6" s="45" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K6" s="42" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D7" s="50" t="n">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="E7" s="34" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="G7" s="35" t="n">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="H7" s="49" t="inlineStr">
         <is>
@@ -1021,11 +1021,11 @@
       </c>
       <c r="I7" s="35" t="inlineStr">
         <is>
-          <t>Kaatsup</t>
+          <t>CrocodyleTV</t>
         </is>
       </c>
       <c r="J7" s="50" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K7" s="34" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D8" s="45" t="n">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="E8" s="42" t="inlineStr">
         <is>
@@ -1064,11 +1064,11 @@
       </c>
       <c r="F8" s="43" t="inlineStr">
         <is>
-          <t>Gom4rt_</t>
+          <t>gobgg</t>
         </is>
       </c>
       <c r="G8" s="43" t="n">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="H8" s="44" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="D9" s="50" t="n">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="E9" s="34" t="inlineStr">
         <is>
@@ -1120,11 +1120,11 @@
       </c>
       <c r="F9" s="35" t="inlineStr">
         <is>
-          <t>ChloeRamdani</t>
+          <t>Gom4rt_</t>
         </is>
       </c>
       <c r="G9" s="35" t="n">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="H9" s="49" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D10" s="45" t="n">
-        <v>591</v>
+        <v>635</v>
       </c>
       <c r="E10" s="42" t="inlineStr">
         <is>
@@ -1177,11 +1177,11 @@
       </c>
       <c r="F10" s="43" t="inlineStr">
         <is>
-          <t>gobgg</t>
+          <t>Bytell2</t>
         </is>
       </c>
       <c r="G10" s="43" t="n">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="H10" s="44" t="inlineStr">
         <is>
@@ -1190,11 +1190,11 @@
       </c>
       <c r="I10" s="43" t="inlineStr">
         <is>
-          <t>Terraciid</t>
+          <t>KyriaaTV</t>
         </is>
       </c>
       <c r="J10" s="45" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K10" s="42" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="D11" s="50" t="n">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="E11" s="34" t="inlineStr">
         <is>
@@ -1233,11 +1233,11 @@
       </c>
       <c r="F11" s="35" t="inlineStr">
         <is>
-          <t>Bytell2</t>
+          <t>ChloeRamdani</t>
         </is>
       </c>
       <c r="G11" s="35" t="n">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="H11" s="49" t="inlineStr">
         <is>
@@ -1246,11 +1246,11 @@
       </c>
       <c r="I11" s="35" t="inlineStr">
         <is>
-          <t>KyriaaTV</t>
+          <t>Nikof_</t>
         </is>
       </c>
       <c r="J11" s="50" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K11" s="34" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D12" s="45" t="n">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E12" s="42" t="inlineStr">
         <is>
@@ -1289,11 +1289,11 @@
       </c>
       <c r="F12" s="43" t="inlineStr">
         <is>
-          <t>Angle_Droit</t>
+          <t>Mickaplow</t>
         </is>
       </c>
       <c r="G12" s="43" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="H12" s="44" t="inlineStr">
         <is>
@@ -1302,11 +1302,11 @@
       </c>
       <c r="I12" s="43" t="inlineStr">
         <is>
-          <t>LadySundae</t>
+          <t>Terraciid</t>
         </is>
       </c>
       <c r="J12" s="45" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K12" s="42" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="D13" s="50" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E13" s="34" t="inlineStr">
         <is>
@@ -1345,11 +1345,11 @@
       </c>
       <c r="F13" s="35" t="inlineStr">
         <is>
-          <t>nemenems</t>
+          <t>Grimkujow</t>
         </is>
       </c>
       <c r="G13" s="35" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="H13" s="49" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I13" s="35" t="inlineStr">
         <is>
-          <t>Nikof_</t>
+          <t>LadySundae</t>
         </is>
       </c>
       <c r="J13" s="50" t="n">
@@ -1391,11 +1391,11 @@
       </c>
       <c r="F14" s="43" t="inlineStr">
         <is>
-          <t>Mickaplow</t>
+          <t>Angle_Droit</t>
         </is>
       </c>
       <c r="G14" s="43" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H14" s="44" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
       <c r="A15" s="29" t="n"/>
       <c r="B15" s="52" t="inlineStr">
         <is>
-          <t>Dernière update le 19.02.25 à 16:56</t>
+          <t>Dernière update le 19.02.25 à 20:26</t>
         </is>
       </c>
       <c r="N15" s="29" t="n"/>
@@ -1428,7 +1428,7 @@
       <c r="A16" s="29" t="n"/>
       <c r="B16" s="53" t="inlineStr">
         <is>
-          <t>(prochaine update vers 19:00)</t>
+          <t>(prochaine update vers 22:00)</t>
         </is>
       </c>
       <c r="N16" s="29" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="D3" s="33" t="n">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E3" s="34" t="inlineStr">
         <is>
@@ -784,11 +784,11 @@
       </c>
       <c r="F3" s="35" t="inlineStr">
         <is>
-          <t>AntoineDaniel_</t>
+          <t>Brybry_</t>
         </is>
       </c>
       <c r="G3" s="35" t="n">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="H3" s="36" t="inlineStr">
         <is>
@@ -797,11 +797,11 @@
       </c>
       <c r="I3" s="37" t="inlineStr">
         <is>
-          <t>nemenems</t>
+          <t>Angle_Droit</t>
         </is>
       </c>
       <c r="J3" s="38" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K3" s="34" t="inlineStr">
         <is>
@@ -810,11 +810,11 @@
       </c>
       <c r="L3" s="35" t="inlineStr">
         <is>
-          <t>Mynth0s</t>
+          <t>Wingobear</t>
         </is>
       </c>
       <c r="M3" s="35" t="n">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="N3" s="29" t="n"/>
     </row>
@@ -827,11 +827,11 @@
       </c>
       <c r="C4" s="40" t="inlineStr">
         <is>
-          <t>HexakiI</t>
+          <t>Julgane</t>
         </is>
       </c>
       <c r="D4" s="41" t="n">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E4" s="42" t="inlineStr">
         <is>
@@ -840,11 +840,11 @@
       </c>
       <c r="F4" s="43" t="inlineStr">
         <is>
-          <t>Bebesukita</t>
+          <t>AntoineDaniel_</t>
         </is>
       </c>
       <c r="G4" s="43" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H4" s="44" t="inlineStr">
         <is>
@@ -853,11 +853,11 @@
       </c>
       <c r="I4" s="43" t="inlineStr">
         <is>
-          <t>KennyStream</t>
+          <t>nemenems</t>
         </is>
       </c>
       <c r="J4" s="45" t="n">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="K4" s="42" t="inlineStr">
         <is>
@@ -866,11 +866,11 @@
       </c>
       <c r="L4" s="43" t="inlineStr">
         <is>
-          <t>LittleBigWhale</t>
+          <t>Mynth0s</t>
         </is>
       </c>
       <c r="M4" s="43" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N4" s="29" t="n"/>
     </row>
@@ -883,11 +883,11 @@
       </c>
       <c r="C5" s="47" t="inlineStr">
         <is>
-          <t>Julgane</t>
+          <t>HexakiI</t>
         </is>
       </c>
       <c r="D5" s="48" t="n">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="E5" s="34" t="inlineStr">
         <is>
@@ -896,11 +896,11 @@
       </c>
       <c r="F5" s="35" t="inlineStr">
         <is>
-          <t>Onutrem</t>
+          <t>aypierre</t>
         </is>
       </c>
       <c r="G5" s="35" t="n">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H5" s="49" t="inlineStr">
         <is>
@@ -909,11 +909,11 @@
       </c>
       <c r="I5" s="35" t="inlineStr">
         <is>
-          <t>Kaatsup</t>
+          <t>KennyStream</t>
         </is>
       </c>
       <c r="J5" s="50" t="n">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K5" s="34" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="M5" s="35" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="N5" s="29" t="n"/>
     </row>
@@ -939,11 +939,11 @@
       </c>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>GotagaTV</t>
+          <t>DFG_DrFeelgood</t>
         </is>
       </c>
       <c r="D6" s="45" t="n">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="E6" s="42" t="inlineStr">
         <is>
@@ -952,11 +952,11 @@
       </c>
       <c r="F6" s="43" t="inlineStr">
         <is>
-          <t>aypierre</t>
+          <t>Onutrem</t>
         </is>
       </c>
       <c r="G6" s="43" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H6" s="44" t="inlineStr">
         <is>
@@ -965,11 +965,11 @@
       </c>
       <c r="I6" s="43" t="inlineStr">
         <is>
-          <t>Theorus_</t>
+          <t>Nikof_</t>
         </is>
       </c>
       <c r="J6" s="45" t="n">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="K6" s="42" t="inlineStr">
         <is>
@@ -995,11 +995,11 @@
       </c>
       <c r="C7" s="35" t="inlineStr">
         <is>
-          <t>DFG_DrFeelgood</t>
+          <t>GotagaTV</t>
         </is>
       </c>
       <c r="D7" s="50" t="n">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="E7" s="34" t="inlineStr">
         <is>
@@ -1008,11 +1008,11 @@
       </c>
       <c r="F7" s="35" t="inlineStr">
         <is>
-          <t>NakaStream</t>
+          <t>gobgg</t>
         </is>
       </c>
       <c r="G7" s="35" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H7" s="49" t="inlineStr">
         <is>
@@ -1021,11 +1021,11 @@
       </c>
       <c r="I7" s="35" t="inlineStr">
         <is>
-          <t>CrocodyleTV</t>
+          <t>Theorus_</t>
         </is>
       </c>
       <c r="J7" s="50" t="n">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K7" s="34" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="M7" s="35" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N7" s="29" t="n"/>
     </row>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D8" s="45" t="n">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="E8" s="42" t="inlineStr">
         <is>
@@ -1064,11 +1064,11 @@
       </c>
       <c r="F8" s="43" t="inlineStr">
         <is>
-          <t>gobgg</t>
+          <t>NakaStream</t>
         </is>
       </c>
       <c r="G8" s="43" t="n">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="H8" s="44" t="inlineStr">
         <is>
@@ -1077,11 +1077,11 @@
       </c>
       <c r="I8" s="43" t="inlineStr">
         <is>
-          <t>XoTrixy</t>
+          <t>CrocodyleTV</t>
         </is>
       </c>
       <c r="J8" s="45" t="n">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="K8" s="42" t="inlineStr">
         <is>
@@ -1107,11 +1107,11 @@
       </c>
       <c r="C9" s="35" t="inlineStr">
         <is>
-          <t>Fukano</t>
+          <t>JimmyBoyyy</t>
         </is>
       </c>
       <c r="D9" s="50" t="n">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="E9" s="34" t="inlineStr">
         <is>
@@ -1133,11 +1133,11 @@
       </c>
       <c r="I9" s="35" t="inlineStr">
         <is>
-          <t>ZeratoR</t>
+          <t>XoTrixy</t>
         </is>
       </c>
       <c r="J9" s="50" t="n">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="K9" s="34" t="inlineStr">
         <is>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="C10" s="43" t="inlineStr">
         <is>
-          <t>JimmyBoyyy</t>
+          <t>Fukano</t>
         </is>
       </c>
       <c r="D10" s="45" t="n">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="E10" s="42" t="inlineStr">
         <is>
@@ -1177,11 +1177,11 @@
       </c>
       <c r="F10" s="43" t="inlineStr">
         <is>
-          <t>Bytell2</t>
+          <t>ChloeRamdani</t>
         </is>
       </c>
       <c r="G10" s="43" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H10" s="44" t="inlineStr">
         <is>
@@ -1190,11 +1190,11 @@
       </c>
       <c r="I10" s="43" t="inlineStr">
         <is>
-          <t>KyriaaTV</t>
+          <t>ZeratoR</t>
         </is>
       </c>
       <c r="J10" s="45" t="n">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="K10" s="42" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="D11" s="50" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E11" s="34" t="inlineStr">
         <is>
@@ -1233,11 +1233,11 @@
       </c>
       <c r="F11" s="35" t="inlineStr">
         <is>
-          <t>ChloeRamdani</t>
+          <t>Bytell2</t>
         </is>
       </c>
       <c r="G11" s="35" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H11" s="49" t="inlineStr">
         <is>
@@ -1246,11 +1246,11 @@
       </c>
       <c r="I11" s="35" t="inlineStr">
         <is>
-          <t>Nikof_</t>
+          <t>KyriaaTV</t>
         </is>
       </c>
       <c r="J11" s="50" t="n">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="K11" s="34" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D12" s="45" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="E12" s="42" t="inlineStr">
         <is>
@@ -1289,11 +1289,11 @@
       </c>
       <c r="F12" s="43" t="inlineStr">
         <is>
-          <t>Mickaplow</t>
+          <t>Grimkujow</t>
         </is>
       </c>
       <c r="G12" s="43" t="n">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="H12" s="44" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="D13" s="50" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E13" s="34" t="inlineStr">
         <is>
@@ -1345,11 +1345,11 @@
       </c>
       <c r="F13" s="35" t="inlineStr">
         <is>
-          <t>Grimkujow</t>
+          <t>Mickaplow</t>
         </is>
       </c>
       <c r="G13" s="35" t="n">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H13" s="49" t="inlineStr">
         <is>
@@ -1358,11 +1358,11 @@
       </c>
       <c r="I13" s="35" t="inlineStr">
         <is>
-          <t>LadySundae</t>
+          <t>LittleBigWhale</t>
         </is>
       </c>
       <c r="J13" s="50" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K13" s="34" t="n"/>
       <c r="L13" s="35" t="n"/>
@@ -1378,11 +1378,11 @@
       </c>
       <c r="C14" s="43" t="inlineStr">
         <is>
-          <t>Brybry_</t>
+          <t>Bebesukita</t>
         </is>
       </c>
       <c r="D14" s="45" t="n">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="E14" s="42" t="inlineStr">
         <is>
@@ -1391,11 +1391,11 @@
       </c>
       <c r="F14" s="43" t="inlineStr">
         <is>
-          <t>Angle_Droit</t>
+          <t>Kaatsup</t>
         </is>
       </c>
       <c r="G14" s="43" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H14" s="44" t="inlineStr">
         <is>
@@ -1404,11 +1404,11 @@
       </c>
       <c r="I14" s="43" t="inlineStr">
         <is>
-          <t>Wingobear</t>
+          <t>LadySundae</t>
         </is>
       </c>
       <c r="J14" s="45" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K14" s="42" t="n"/>
       <c r="L14" s="43" t="n"/>
@@ -1419,7 +1419,7 @@
       <c r="A15" s="29" t="n"/>
       <c r="B15" s="52" t="inlineStr">
         <is>
-          <t>Dernière update le 19.02.25 à 20:26</t>
+          <t>Dernière update le 19.02.25 à 23:23</t>
         </is>
       </c>
       <c r="N15" s="29" t="n"/>
@@ -1428,7 +1428,7 @@
       <c r="A16" s="29" t="n"/>
       <c r="B16" s="53" t="inlineStr">
         <is>
-          <t>(prochaine update vers 22:00)</t>
+          <t>(prochaine update vers 01:00)</t>
         </is>
       </c>
       <c r="N16" s="29" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -771,11 +771,11 @@
       </c>
       <c r="C3" s="32" t="inlineStr">
         <is>
-          <t>SakorRos</t>
+          <t>Julgane</t>
         </is>
       </c>
       <c r="D3" s="33" t="n">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="E3" s="34" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="G3" s="35" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H3" s="36" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="J3" s="38" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K3" s="34" t="inlineStr">
         <is>
@@ -810,11 +810,11 @@
       </c>
       <c r="L3" s="35" t="inlineStr">
         <is>
-          <t>Wingobear</t>
+          <t>LadySundae</t>
         </is>
       </c>
       <c r="M3" s="35" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N3" s="29" t="n"/>
     </row>
@@ -827,11 +827,11 @@
       </c>
       <c r="C4" s="40" t="inlineStr">
         <is>
-          <t>Julgane</t>
+          <t>SakorRos</t>
         </is>
       </c>
       <c r="D4" s="41" t="n">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="E4" s="42" t="inlineStr">
         <is>
@@ -866,11 +866,11 @@
       </c>
       <c r="L4" s="43" t="inlineStr">
         <is>
-          <t>Mynth0s</t>
+          <t>Wingobear</t>
         </is>
       </c>
       <c r="M4" s="43" t="n">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="N4" s="29" t="n"/>
     </row>
@@ -883,11 +883,11 @@
       </c>
       <c r="C5" s="47" t="inlineStr">
         <is>
-          <t>HexakiI</t>
+          <t>DFG_DrFeelgood</t>
         </is>
       </c>
       <c r="D5" s="48" t="n">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="E5" s="34" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="G5" s="35" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H5" s="49" t="inlineStr">
         <is>
@@ -909,11 +909,11 @@
       </c>
       <c r="I5" s="35" t="inlineStr">
         <is>
-          <t>KennyStream</t>
+          <t>Nikof_</t>
         </is>
       </c>
       <c r="J5" s="50" t="n">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K5" s="34" t="inlineStr">
         <is>
@@ -922,11 +922,11 @@
       </c>
       <c r="L5" s="35" t="inlineStr">
         <is>
-          <t>Elspawn</t>
+          <t>Mynth0s</t>
         </is>
       </c>
       <c r="M5" s="35" t="n">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="N5" s="29" t="n"/>
     </row>
@@ -939,11 +939,11 @@
       </c>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>DFG_DrFeelgood</t>
+          <t>HexakiI</t>
         </is>
       </c>
       <c r="D6" s="45" t="n">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="E6" s="42" t="inlineStr">
         <is>
@@ -965,11 +965,11 @@
       </c>
       <c r="I6" s="43" t="inlineStr">
         <is>
-          <t>Nikof_</t>
+          <t>KennyStream</t>
         </is>
       </c>
       <c r="J6" s="45" t="n">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="K6" s="42" t="inlineStr">
         <is>
@@ -995,11 +995,11 @@
       </c>
       <c r="C7" s="35" t="inlineStr">
         <is>
-          <t>GotagaTV</t>
+          <t>TheGuill84</t>
         </is>
       </c>
       <c r="D7" s="50" t="n">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="E7" s="34" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="M7" s="35" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="N7" s="29" t="n"/>
     </row>
@@ -1051,11 +1051,11 @@
       </c>
       <c r="C8" s="43" t="inlineStr">
         <is>
-          <t>TheGuill84</t>
+          <t>GotagaTV</t>
         </is>
       </c>
       <c r="D8" s="45" t="n">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="E8" s="42" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="G8" s="43" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H8" s="44" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="D9" s="50" t="n">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="E9" s="34" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="J9" s="50" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="K9" s="34" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="G10" s="43" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H10" s="44" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="D11" s="50" t="n">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="E11" s="34" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="J11" s="50" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K11" s="34" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D12" s="45" t="n">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="E12" s="42" t="inlineStr">
         <is>
@@ -1302,11 +1302,11 @@
       </c>
       <c r="I12" s="43" t="inlineStr">
         <is>
-          <t>Terraciid</t>
+          <t>LittleBigWhale</t>
         </is>
       </c>
       <c r="J12" s="45" t="n">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K12" s="42" t="inlineStr">
         <is>
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C13" s="35" t="inlineStr">
         <is>
-          <t>_Linca</t>
+          <t>Bebesukita</t>
         </is>
       </c>
       <c r="D13" s="50" t="n">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E13" s="34" t="inlineStr">
         <is>
@@ -1358,11 +1358,11 @@
       </c>
       <c r="I13" s="35" t="inlineStr">
         <is>
-          <t>LittleBigWhale</t>
+          <t>Elspawn</t>
         </is>
       </c>
       <c r="J13" s="50" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K13" s="34" t="n"/>
       <c r="L13" s="35" t="n"/>
@@ -1378,11 +1378,11 @@
       </c>
       <c r="C14" s="43" t="inlineStr">
         <is>
-          <t>Bebesukita</t>
+          <t>_Linca</t>
         </is>
       </c>
       <c r="D14" s="45" t="n">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="E14" s="42" t="inlineStr">
         <is>
@@ -1404,11 +1404,11 @@
       </c>
       <c r="I14" s="43" t="inlineStr">
         <is>
-          <t>LadySundae</t>
+          <t>Terraciid</t>
         </is>
       </c>
       <c r="J14" s="45" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K14" s="42" t="n"/>
       <c r="L14" s="43" t="n"/>
@@ -1419,7 +1419,7 @@
       <c r="A15" s="29" t="n"/>
       <c r="B15" s="52" t="inlineStr">
         <is>
-          <t>Dernière update le 19.02.25 à 23:23</t>
+          <t>Dernière update le 20.02.25 à 01:36</t>
         </is>
       </c>
       <c r="N15" s="29" t="n"/>
@@ -1428,7 +1428,7 @@
       <c r="A16" s="29" t="n"/>
       <c r="B16" s="53" t="inlineStr">
         <is>
-          <t>(prochaine update vers 01:00)</t>
+          <t>(prochaine update vers 03:00)</t>
         </is>
       </c>
       <c r="N16" s="29" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -1025,11 +1025,11 @@
       </c>
       <c r="C3" s="65" t="inlineStr">
         <is>
-          <t>GotagaTV</t>
+          <t>HexakiI</t>
         </is>
       </c>
       <c r="D3" s="66" t="n">
-        <v>787</v>
+        <v>813</v>
       </c>
       <c r="E3" s="67" t="inlineStr">
         <is>
@@ -1038,11 +1038,11 @@
       </c>
       <c r="F3" s="68" t="inlineStr">
         <is>
-          <t>_Linca</t>
+          <t>aypierre</t>
         </is>
       </c>
       <c r="G3" s="68" t="n">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="H3" s="69" t="inlineStr">
         <is>
@@ -1081,11 +1081,11 @@
       </c>
       <c r="C4" s="73" t="inlineStr">
         <is>
-          <t>Julgane</t>
+          <t>DFG_DrFeelgood</t>
         </is>
       </c>
       <c r="D4" s="74" t="n">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="E4" s="75" t="inlineStr">
         <is>
@@ -1137,11 +1137,11 @@
       </c>
       <c r="C5" s="80" t="inlineStr">
         <is>
-          <t>DFG_DrFeelgood</t>
+          <t>GotagaTV</t>
         </is>
       </c>
       <c r="D5" s="81" t="n">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="E5" s="67" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="G5" s="68" t="n">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="H5" s="82" t="inlineStr">
         <is>
@@ -1193,11 +1193,11 @@
       </c>
       <c r="C6" s="76" t="inlineStr">
         <is>
-          <t>HexakiI</t>
+          <t>Julgane</t>
         </is>
       </c>
       <c r="D6" s="78" t="n">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="E6" s="75" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="M6" s="76" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N6" s="62" t="n"/>
     </row>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="D7" s="83" t="n">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="E7" s="67" t="inlineStr">
         <is>
@@ -1318,11 +1318,11 @@
       </c>
       <c r="F8" s="76" t="inlineStr">
         <is>
-          <t>Onutrem</t>
+          <t>NakaStream</t>
         </is>
       </c>
       <c r="G8" s="76" t="n">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="H8" s="77" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="D9" s="83" t="n">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="E9" s="67" t="inlineStr">
         <is>
@@ -1374,11 +1374,11 @@
       </c>
       <c r="F9" s="68" t="inlineStr">
         <is>
-          <t>Nikof_</t>
+          <t>Onutrem</t>
         </is>
       </c>
       <c r="G9" s="68" t="n">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="H9" s="82" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="D10" s="78" t="n">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E10" s="75" t="inlineStr">
         <is>
@@ -1431,11 +1431,11 @@
       </c>
       <c r="F10" s="76" t="inlineStr">
         <is>
-          <t>NakaStream</t>
+          <t>Nikof_</t>
         </is>
       </c>
       <c r="G10" s="76" t="n">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="H10" s="77" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I10" s="76" t="inlineStr">
         <is>
-          <t>KyriaaTV</t>
+          <t>XoTrixy</t>
         </is>
       </c>
       <c r="J10" s="78" t="n">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D11" s="83" t="n">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="E11" s="67" t="inlineStr">
         <is>
@@ -1487,11 +1487,11 @@
       </c>
       <c r="F11" s="68" t="inlineStr">
         <is>
-          <t>LittleBigWhale</t>
+          <t>Mickaplow</t>
         </is>
       </c>
       <c r="G11" s="68" t="n">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="H11" s="82" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="I11" s="68" t="inlineStr">
         <is>
-          <t>XoTrixy</t>
+          <t>KyriaaTV</t>
         </is>
       </c>
       <c r="J11" s="83" t="n">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="F12" s="76" t="inlineStr">
         <is>
-          <t>Gom4rt_</t>
+          <t>LittleBigWhale</t>
         </is>
       </c>
       <c r="G12" s="76" t="n">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="H12" s="77" t="inlineStr">
         <is>
@@ -1586,11 +1586,11 @@
       </c>
       <c r="C13" s="68" t="inlineStr">
         <is>
-          <t>aypierre</t>
+          <t>Bebesukita</t>
         </is>
       </c>
       <c r="D13" s="83" t="n">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="E13" s="67" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="F13" s="68" t="inlineStr">
         <is>
-          <t>Bytell2</t>
+          <t>Gom4rt_</t>
         </is>
       </c>
       <c r="G13" s="68" t="n">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H13" s="82" t="inlineStr">
         <is>
@@ -1632,11 +1632,11 @@
       </c>
       <c r="C14" s="76" t="inlineStr">
         <is>
-          <t>Bebesukita</t>
+          <t>_Linca</t>
         </is>
       </c>
       <c r="D14" s="78" t="n">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="E14" s="75" t="inlineStr">
         <is>
@@ -1645,11 +1645,11 @@
       </c>
       <c r="F14" s="76" t="inlineStr">
         <is>
-          <t>Mickaplow</t>
+          <t>Bytell2</t>
         </is>
       </c>
       <c r="G14" s="76" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H14" s="77" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="J14" s="78" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K14" s="75" t="n"/>
       <c r="L14" s="76" t="n"/>
@@ -1673,7 +1673,7 @@
       <c r="A15" s="62" t="n"/>
       <c r="B15" s="85" t="inlineStr">
         <is>
-          <t>Dernière update le 21.02.25 à 06:25</t>
+          <t>Dernière update le 21.02.25 à 17:34</t>
         </is>
       </c>
       <c r="N15" s="62" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="A16" s="62" t="n"/>
       <c r="B16" s="86" t="inlineStr">
         <is>
-          <t>(prochaine update vers 15:00)</t>
+          <t>(prochaine update vers 19:00)</t>
         </is>
       </c>
       <c r="N16" s="62" t="n"/>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="D3" s="66" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E3" s="89" t="inlineStr">
         <is>
@@ -1792,11 +1792,11 @@
       </c>
       <c r="F3" s="90" t="inlineStr">
         <is>
-          <t>NakaStream</t>
+          <t>JimmyBoyyy</t>
         </is>
       </c>
       <c r="G3" s="90" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H3" s="91" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D4" s="74" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E4" s="94" t="inlineStr">
         <is>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="F4" s="95" t="inlineStr">
         <is>
-          <t>_Linca</t>
+          <t>NakaStream</t>
         </is>
       </c>
       <c r="G4" s="95" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H4" s="96" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="D5" s="81" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E5" s="89" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="G5" s="90" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" s="98" t="inlineStr">
         <is>
@@ -1947,11 +1947,11 @@
       </c>
       <c r="C6" s="95" t="inlineStr">
         <is>
-          <t>MoMaN_uS</t>
+          <t>HexakiI</t>
         </is>
       </c>
       <c r="D6" s="97" t="n">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E6" s="94" t="inlineStr">
         <is>
@@ -1960,11 +1960,11 @@
       </c>
       <c r="F6" s="95" t="inlineStr">
         <is>
-          <t>Bebesukita</t>
+          <t>Mickaplow</t>
         </is>
       </c>
       <c r="G6" s="95" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" s="96" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="I6" s="95" t="inlineStr">
         <is>
-          <t>AntoineDaniel_</t>
+          <t>KennyStream</t>
         </is>
       </c>
       <c r="J6" s="97" t="n">
@@ -2003,11 +2003,11 @@
       </c>
       <c r="C7" s="90" t="inlineStr">
         <is>
-          <t>HexakiI</t>
+          <t>MoMaN_uS</t>
         </is>
       </c>
       <c r="D7" s="99" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E7" s="89" t="inlineStr">
         <is>
@@ -2016,11 +2016,11 @@
       </c>
       <c r="F7" s="90" t="inlineStr">
         <is>
-          <t>Bytell2</t>
+          <t>Bebesukita</t>
         </is>
       </c>
       <c r="G7" s="90" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H7" s="98" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="I7" s="90" t="inlineStr">
         <is>
-          <t>Terraciid</t>
+          <t>AntoineDaniel_</t>
         </is>
       </c>
       <c r="J7" s="99" t="n">
@@ -2059,11 +2059,11 @@
       </c>
       <c r="C8" s="95" t="inlineStr">
         <is>
-          <t>Etoiles</t>
+          <t>SakorRos</t>
         </is>
       </c>
       <c r="D8" s="97" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E8" s="94" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G8" s="95" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H8" s="96" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="I8" s="95" t="inlineStr">
         <is>
-          <t>Angle_Droit</t>
+          <t>Terraciid</t>
         </is>
       </c>
       <c r="J8" s="97" t="n">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="C9" s="90" t="inlineStr">
         <is>
-          <t>SakorRos</t>
+          <t>Etoiles</t>
         </is>
       </c>
       <c r="D9" s="99" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E9" s="89" t="inlineStr">
         <is>
@@ -2128,11 +2128,11 @@
       </c>
       <c r="F9" s="90" t="inlineStr">
         <is>
-          <t>LittleBigWhale</t>
+          <t>Bytell2</t>
         </is>
       </c>
       <c r="G9" s="90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="98" t="inlineStr">
         <is>
@@ -2141,11 +2141,11 @@
       </c>
       <c r="I9" s="90" t="inlineStr">
         <is>
-          <t>KennyStream</t>
+          <t>Angle_Droit</t>
         </is>
       </c>
       <c r="J9" s="99" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="89" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="D10" s="97" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E10" s="94" t="inlineStr">
         <is>
@@ -2185,11 +2185,11 @@
       </c>
       <c r="F10" s="95" t="inlineStr">
         <is>
-          <t>Mickaplow</t>
+          <t>LittleBigWhale</t>
         </is>
       </c>
       <c r="G10" s="95" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="96" t="inlineStr">
         <is>
@@ -2241,11 +2241,11 @@
       </c>
       <c r="F11" s="90" t="inlineStr">
         <is>
-          <t>Theorus_</t>
+          <t>gobgg</t>
         </is>
       </c>
       <c r="G11" s="90" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" s="98" t="inlineStr">
         <is>
@@ -2284,11 +2284,11 @@
       </c>
       <c r="C12" s="95" t="inlineStr">
         <is>
-          <t>ChloeRamdani</t>
+          <t>_Linca</t>
         </is>
       </c>
       <c r="D12" s="97" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E12" s="94" t="inlineStr">
         <is>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="F12" s="95" t="inlineStr">
         <is>
-          <t>gobgg</t>
+          <t>Theorus_</t>
         </is>
       </c>
       <c r="G12" s="95" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="96" t="inlineStr">
         <is>
@@ -2340,11 +2340,11 @@
       </c>
       <c r="C13" s="90" t="inlineStr">
         <is>
-          <t>Brybry_</t>
+          <t>ChloeRamdani</t>
         </is>
       </c>
       <c r="D13" s="99" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E13" s="89" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="J13" s="99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" s="89" t="n"/>
       <c r="L13" s="90" t="n"/>
@@ -2386,11 +2386,11 @@
       </c>
       <c r="C14" s="95" t="inlineStr">
         <is>
-          <t>JimmyBoyyy</t>
+          <t>Brybry_</t>
         </is>
       </c>
       <c r="D14" s="97" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E14" s="94" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
       <c r="A15" s="87" t="n"/>
       <c r="B15" s="100" t="inlineStr">
         <is>
-          <t>Dernière update le 21.02.25 à 06:25</t>
+          <t>Dernière update le 21.02.25 à 17:34</t>
         </is>
       </c>
       <c r="N15" s="87" t="n"/>
@@ -2436,7 +2436,7 @@
       <c r="A16" s="87" t="n"/>
       <c r="B16" s="101" t="inlineStr">
         <is>
-          <t>(prochaine update vers 15:00)</t>
+          <t>(prochaine update vers 19:00)</t>
         </is>
       </c>
       <c r="N16" s="87" t="n"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="I3" s="107" t="inlineStr">
         <is>
-          <t>LadySundae</t>
+          <t>LittleBigWhale</t>
         </is>
       </c>
       <c r="J3" s="108" t="n">
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="D4" s="74" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E4" s="109" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="F4" s="110" t="inlineStr">
         <is>
-          <t>Fukano</t>
+          <t>aypierre</t>
         </is>
       </c>
       <c r="G4" s="110" t="n">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="I4" s="110" t="inlineStr">
         <is>
-          <t>LittleBigWhale</t>
+          <t>LadySundae</t>
         </is>
       </c>
       <c r="J4" s="112" t="n">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="D5" s="115" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E5" s="104" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="F5" s="105" t="inlineStr">
         <is>
-          <t>JimmyBoyyy</t>
+          <t>Fukano</t>
         </is>
       </c>
       <c r="G5" s="105" t="n">
@@ -2679,11 +2679,11 @@
       </c>
       <c r="I5" s="105" t="inlineStr">
         <is>
-          <t>CrocodyleTV</t>
+          <t>gobgg</t>
         </is>
       </c>
       <c r="J5" s="117" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K5" s="104" t="inlineStr">
         <is>
@@ -2709,11 +2709,11 @@
       </c>
       <c r="C6" s="110" t="inlineStr">
         <is>
-          <t>Julgane</t>
+          <t>SakorRos</t>
         </is>
       </c>
       <c r="D6" s="112" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="109" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="F6" s="110" t="inlineStr">
         <is>
-          <t>aypierre</t>
+          <t>JimmyBoyyy</t>
         </is>
       </c>
       <c r="G6" s="110" t="n">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="I6" s="110" t="inlineStr">
         <is>
-          <t>KennyStream</t>
+          <t>CrocodyleTV</t>
         </is>
       </c>
       <c r="J6" s="112" t="n">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="C7" s="105" t="inlineStr">
         <is>
-          <t>_Linca</t>
+          <t>Julgane</t>
         </is>
       </c>
       <c r="D7" s="117" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7" s="104" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="I7" s="105" t="inlineStr">
         <is>
-          <t>Kaatsup</t>
+          <t>KennyStream</t>
         </is>
       </c>
       <c r="J7" s="117" t="n">
@@ -2821,11 +2821,11 @@
       </c>
       <c r="C8" s="110" t="inlineStr">
         <is>
-          <t>Etoiles</t>
+          <t>_Linca</t>
         </is>
       </c>
       <c r="D8" s="112" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E8" s="109" t="inlineStr">
         <is>
@@ -2877,11 +2877,11 @@
       </c>
       <c r="C9" s="105" t="inlineStr">
         <is>
-          <t>SakorRos</t>
+          <t>Etoiles</t>
         </is>
       </c>
       <c r="D9" s="117" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="104" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="F9" s="105" t="inlineStr">
         <is>
-          <t>Terraciid</t>
+          <t>Theorus_</t>
         </is>
       </c>
       <c r="G9" s="105" t="n">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="I9" s="105" t="inlineStr">
         <is>
-          <t>Mynth0s</t>
+          <t>Kaatsup</t>
         </is>
       </c>
       <c r="J9" s="117" t="n">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="F10" s="110" t="inlineStr">
         <is>
-          <t>Theorus_</t>
+          <t>Terraciid</t>
         </is>
       </c>
       <c r="G10" s="110" t="n">
@@ -2960,11 +2960,11 @@
       </c>
       <c r="I10" s="110" t="inlineStr">
         <is>
-          <t>Gom4rt_</t>
+          <t>Mynth0s</t>
         </is>
       </c>
       <c r="J10" s="112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" s="109" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="D11" s="117" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="104" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="G11" s="105" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="116" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="I11" s="105" t="inlineStr">
         <is>
-          <t>gobgg</t>
+          <t>Gom4rt_</t>
         </is>
       </c>
       <c r="J11" s="117" t="n">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="F12" s="110" t="inlineStr">
         <is>
-          <t>XoTrixy</t>
+          <t>Hiro_Ammar</t>
         </is>
       </c>
       <c r="G12" s="110" t="n">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="F13" s="105" t="inlineStr">
         <is>
-          <t>Hiro_Ammar</t>
+          <t>XoTrixy</t>
         </is>
       </c>
       <c r="G13" s="105" t="n">
@@ -3189,7 +3189,7 @@
       <c r="A15" s="102" t="n"/>
       <c r="B15" s="118" t="inlineStr">
         <is>
-          <t>Dernière update le 21.02.25 à 06:25</t>
+          <t>Dernière update le 21.02.25 à 17:34</t>
         </is>
       </c>
       <c r="N15" s="102" t="n"/>
@@ -3198,7 +3198,7 @@
       <c r="A16" s="102" t="n"/>
       <c r="B16" s="119" t="inlineStr">
         <is>
-          <t>(prochaine update vers 15:00)</t>
+          <t>(prochaine update vers 19:00)</t>
         </is>
       </c>
       <c r="N16" s="102" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C3" s="81" t="inlineStr">
         <is>
-          <t>GotagaTV</t>
+          <t>TheGuill84</t>
         </is>
       </c>
       <c r="D3" s="82" t="n">
-        <v>955</v>
+        <v>975</v>
       </c>
       <c r="E3" s="83" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="G3" s="83" t="n">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="H3" s="84" t="inlineStr">
         <is>
@@ -1107,11 +1107,11 @@
       </c>
       <c r="L3" s="87" t="inlineStr">
         <is>
-          <t>Terraciid</t>
+          <t>Elspawn</t>
         </is>
       </c>
       <c r="M3" s="87" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N3" s="83" t="inlineStr">
         <is>
@@ -1120,11 +1120,11 @@
       </c>
       <c r="O3" s="83" t="inlineStr">
         <is>
-          <t>JLKada</t>
+          <t>Pepito_kawazakii</t>
         </is>
       </c>
       <c r="P3" s="83" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="78" t="n"/>
     </row>
@@ -1137,11 +1137,11 @@
       </c>
       <c r="C4" s="89" t="inlineStr">
         <is>
-          <t>HexakiI</t>
+          <t>GotagaTV</t>
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>906</v>
+        <v>966</v>
       </c>
       <c r="E4" s="91" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="G4" s="91" t="n">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="H4" s="92" t="inlineStr">
         <is>
@@ -1176,11 +1176,11 @@
       </c>
       <c r="L4" s="91" t="inlineStr">
         <is>
-          <t>Elspawn</t>
+          <t>Terraciid</t>
         </is>
       </c>
       <c r="M4" s="91" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N4" s="91" t="inlineStr">
         <is>
@@ -1189,11 +1189,11 @@
       </c>
       <c r="O4" s="91" t="inlineStr">
         <is>
-          <t>Maxouzboub</t>
+          <t>JLKada</t>
         </is>
       </c>
       <c r="P4" s="91" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="78" t="n"/>
     </row>
@@ -1206,11 +1206,11 @@
       </c>
       <c r="C5" s="95" t="inlineStr">
         <is>
-          <t>TheGuill84</t>
+          <t>HexakiI</t>
         </is>
       </c>
       <c r="D5" s="96" t="n">
-        <v>891</v>
+        <v>946</v>
       </c>
       <c r="E5" s="83" t="inlineStr">
         <is>
@@ -1232,11 +1232,11 @@
       </c>
       <c r="I5" s="83" t="inlineStr">
         <is>
-          <t>Theorus_</t>
+          <t>Bytell2</t>
         </is>
       </c>
       <c r="J5" s="98" t="n">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="K5" s="83" t="inlineStr">
         <is>
@@ -1258,11 +1258,11 @@
       </c>
       <c r="O5" s="83" t="inlineStr">
         <is>
-          <t>ARELIANN</t>
+          <t>JLTootmy</t>
         </is>
       </c>
       <c r="P5" s="83" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="78" t="n"/>
     </row>
@@ -1275,11 +1275,11 @@
       </c>
       <c r="C6" s="91" t="inlineStr">
         <is>
-          <t>Julgane</t>
+          <t>Nikof_</t>
         </is>
       </c>
       <c r="D6" s="93" t="n">
-        <v>840</v>
+        <v>865</v>
       </c>
       <c r="E6" s="91" t="inlineStr">
         <is>
@@ -1301,11 +1301,11 @@
       </c>
       <c r="I6" s="91" t="inlineStr">
         <is>
-          <t>Grimkujow</t>
+          <t>Theorus_</t>
         </is>
       </c>
       <c r="J6" s="93" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="K6" s="91" t="inlineStr">
         <is>
@@ -1327,11 +1327,11 @@
       </c>
       <c r="O6" s="91" t="inlineStr">
         <is>
-          <t>nisqylegoat</t>
+          <t>ARELIANN</t>
         </is>
       </c>
       <c r="P6" s="91" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="78" t="n"/>
     </row>
@@ -1344,11 +1344,11 @@
       </c>
       <c r="C7" s="83" t="inlineStr">
         <is>
-          <t>SakorRos</t>
+          <t>JimmyBoyyy</t>
         </is>
       </c>
       <c r="D7" s="98" t="n">
-        <v>833</v>
+        <v>862</v>
       </c>
       <c r="E7" s="83" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="G7" s="83" t="n">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="H7" s="97" t="inlineStr">
         <is>
@@ -1370,11 +1370,11 @@
       </c>
       <c r="I7" s="83" t="inlineStr">
         <is>
-          <t>Bytell2</t>
+          <t>Grimkujow</t>
         </is>
       </c>
       <c r="J7" s="98" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K7" s="83" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="L7" s="83" t="inlineStr">
         <is>
-          <t>Wingobear</t>
+          <t>LuttiLutti</t>
         </is>
       </c>
       <c r="M7" s="83" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N7" s="83" t="inlineStr">
         <is>
@@ -1396,11 +1396,11 @@
       </c>
       <c r="O7" s="83" t="inlineStr">
         <is>
-          <t>JLTootmy</t>
+          <t>nisqylegoat</t>
         </is>
       </c>
       <c r="P7" s="83" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="78" t="n"/>
     </row>
@@ -1413,11 +1413,11 @@
       </c>
       <c r="C8" s="91" t="inlineStr">
         <is>
-          <t>Fukano</t>
+          <t>Julgane</t>
         </is>
       </c>
       <c r="D8" s="93" t="n">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="E8" s="91" t="inlineStr">
         <is>
@@ -1426,11 +1426,11 @@
       </c>
       <c r="F8" s="91" t="inlineStr">
         <is>
-          <t>_Linca</t>
+          <t>Mickaplow</t>
         </is>
       </c>
       <c r="G8" s="91" t="n">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="H8" s="92" t="inlineStr">
         <is>
@@ -1452,11 +1452,11 @@
       </c>
       <c r="L8" s="91" t="inlineStr">
         <is>
-          <t>Hiro_Ammar</t>
+          <t>Wingobear</t>
         </is>
       </c>
       <c r="M8" s="91" t="n">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="N8" s="91" t="inlineStr">
         <is>
@@ -1482,11 +1482,11 @@
       </c>
       <c r="C9" s="83" t="inlineStr">
         <is>
-          <t>DFG_DrFeelgood</t>
+          <t>SakorRos</t>
         </is>
       </c>
       <c r="D9" s="98" t="n">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="E9" s="83" t="inlineStr">
         <is>
@@ -1495,11 +1495,11 @@
       </c>
       <c r="F9" s="83" t="inlineStr">
         <is>
-          <t>Mickaplow</t>
+          <t>_Linca</t>
         </is>
       </c>
       <c r="G9" s="83" t="n">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="H9" s="97" t="inlineStr">
         <is>
@@ -1521,11 +1521,11 @@
       </c>
       <c r="L9" s="83" t="inlineStr">
         <is>
-          <t>LuttiLutti</t>
+          <t>Hiro_Ammar</t>
         </is>
       </c>
       <c r="M9" s="83" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="N9" s="83" t="n"/>
       <c r="O9" s="83" t="n"/>
@@ -1542,11 +1542,11 @@
       </c>
       <c r="C10" s="91" t="inlineStr">
         <is>
-          <t>Nikof_</t>
+          <t>Fukano</t>
         </is>
       </c>
       <c r="D10" s="93" t="n">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="E10" s="91" t="inlineStr">
         <is>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="F10" s="91" t="inlineStr">
         <is>
-          <t>gobgg</t>
+          <t>Brybry_</t>
         </is>
       </c>
       <c r="G10" s="91" t="n">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="H10" s="92" t="inlineStr">
         <is>
@@ -1601,11 +1601,11 @@
       </c>
       <c r="C11" s="83" t="inlineStr">
         <is>
-          <t>JimmyBoyyy</t>
+          <t>DFG_DrFeelgood</t>
         </is>
       </c>
       <c r="D11" s="98" t="n">
-        <v>779</v>
+        <v>820</v>
       </c>
       <c r="E11" s="83" t="inlineStr">
         <is>
@@ -1614,11 +1614,11 @@
       </c>
       <c r="F11" s="83" t="inlineStr">
         <is>
-          <t>Brybry_</t>
+          <t>gobgg</t>
         </is>
       </c>
       <c r="G11" s="83" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H11" s="97" t="inlineStr">
         <is>
@@ -1699,11 +1699,11 @@
       </c>
       <c r="L12" s="91" t="inlineStr">
         <is>
-          <t>BagheraJones</t>
+          <t>Maxouzboub</t>
         </is>
       </c>
       <c r="M12" s="91" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N12" s="91" t="n"/>
       <c r="O12" s="91" t="n"/>
@@ -1758,11 +1758,11 @@
       </c>
       <c r="L13" s="100" t="inlineStr">
         <is>
-          <t>Pepito_kawazakii</t>
+          <t>BagheraJones</t>
         </is>
       </c>
       <c r="M13" s="100" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N13" s="83" t="n"/>
       <c r="O13" s="83" t="n"/>
@@ -1773,7 +1773,7 @@
       <c r="A14" s="78" t="n"/>
       <c r="B14" s="101" t="inlineStr">
         <is>
-          <t>Dernière update le 24.02.25 à 19:01</t>
+          <t>Dernière update le 24.02.25 à 23:49</t>
         </is>
       </c>
       <c r="Q14" s="78" t="n"/>
@@ -1885,11 +1885,11 @@
       </c>
       <c r="C3" s="81" t="inlineStr">
         <is>
-          <t>GotagaTV</t>
+          <t>TheGuill84</t>
         </is>
       </c>
       <c r="D3" s="82" t="n">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="E3" s="105" t="inlineStr">
         <is>
@@ -1898,11 +1898,11 @@
       </c>
       <c r="F3" s="105" t="inlineStr">
         <is>
-          <t>Etoiles</t>
+          <t>DFG_DrFeelgood</t>
         </is>
       </c>
       <c r="G3" s="105" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" s="106" t="inlineStr">
         <is>
@@ -1911,11 +1911,11 @@
       </c>
       <c r="I3" s="107" t="inlineStr">
         <is>
-          <t>LadySundae</t>
+          <t>Bytell2</t>
         </is>
       </c>
       <c r="J3" s="108" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="109" t="inlineStr">
         <is>
@@ -1924,11 +1924,11 @@
       </c>
       <c r="L3" s="110" t="inlineStr">
         <is>
-          <t>Grimkujow</t>
+          <t>XoTrixy</t>
         </is>
       </c>
       <c r="M3" s="111" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N3" s="105" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="O3" s="105" t="inlineStr">
         <is>
-          <t>Pepito_kawazakii</t>
+          <t>Wingobear</t>
         </is>
       </c>
       <c r="P3" s="105" t="n">
@@ -1954,11 +1954,11 @@
       </c>
       <c r="C4" s="89" t="inlineStr">
         <is>
-          <t>TheGuill84</t>
+          <t>GotagaTV</t>
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="E4" s="112" t="inlineStr">
         <is>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="F4" s="112" t="inlineStr">
         <is>
-          <t>JimmyBoyyy</t>
+          <t>Etoiles</t>
         </is>
       </c>
       <c r="G4" s="112" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H4" s="113" t="inlineStr">
         <is>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="I4" s="112" t="inlineStr">
         <is>
-          <t>Theorus_</t>
+          <t>LadySundae</t>
         </is>
       </c>
       <c r="J4" s="114" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="115" t="inlineStr">
         <is>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="O4" s="112" t="inlineStr">
         <is>
-          <t>nisqylegoat</t>
+          <t>ZeratoR</t>
         </is>
       </c>
       <c r="P4" s="112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="103" t="n"/>
     </row>
@@ -2023,11 +2023,11 @@
       </c>
       <c r="C5" s="95" t="inlineStr">
         <is>
-          <t>HexakiI</t>
+          <t>Nikof_</t>
         </is>
       </c>
       <c r="D5" s="96" t="n">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="E5" s="105" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="G5" s="105" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" s="117" t="inlineStr">
         <is>
@@ -2049,11 +2049,11 @@
       </c>
       <c r="I5" s="105" t="inlineStr">
         <is>
-          <t>Bytell2</t>
+          <t>Theorus_</t>
         </is>
       </c>
       <c r="J5" s="118" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K5" s="119" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="L5" s="105" t="inlineStr">
         <is>
-          <t>LuttiLutti</t>
+          <t>Grimkujow</t>
         </is>
       </c>
       <c r="M5" s="120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N5" s="105" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="O5" s="105" t="inlineStr">
         <is>
-          <t>JLTootmy</t>
+          <t>HarryLafranc</t>
         </is>
       </c>
       <c r="P5" s="105" t="n">
@@ -2092,11 +2092,11 @@
       </c>
       <c r="C6" s="112" t="inlineStr">
         <is>
-          <t>Nikof_</t>
+          <t>HexakiI</t>
         </is>
       </c>
       <c r="D6" s="114" t="n">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="E6" s="112" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="O6" s="112" t="inlineStr">
         <is>
-          <t>HarryLafranc</t>
+          <t>ARELIANN</t>
         </is>
       </c>
       <c r="P6" s="112" t="n">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="G7" s="105" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="117" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="O7" s="105" t="inlineStr">
         <is>
-          <t>ARELIANN</t>
+          <t>JLKada</t>
         </is>
       </c>
       <c r="P7" s="105" t="n">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G8" s="112" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H8" s="113" t="inlineStr">
         <is>
@@ -2269,11 +2269,11 @@
       </c>
       <c r="L8" s="112" t="inlineStr">
         <is>
-          <t>Mynth0s</t>
+          <t>Maxouzboub</t>
         </is>
       </c>
       <c r="M8" s="116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" s="112" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="O8" s="112" t="inlineStr">
         <is>
-          <t>JLKada</t>
+          <t>nisqylegoat</t>
         </is>
       </c>
       <c r="P8" s="112" t="n">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="L9" s="105" t="inlineStr">
         <is>
-          <t>Elspawn</t>
+          <t>Mynth0s</t>
         </is>
       </c>
       <c r="M9" s="120" t="n">
@@ -2398,11 +2398,11 @@
       </c>
       <c r="L10" s="112" t="inlineStr">
         <is>
-          <t>BagheraJones</t>
+          <t>Elspawn</t>
         </is>
       </c>
       <c r="M10" s="116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="112" t="n"/>
       <c r="O10" s="112" t="n"/>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="D11" s="118" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E11" s="105" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="L11" s="105" t="inlineStr">
         <is>
-          <t>Maxouzboub</t>
+          <t>BagheraJones</t>
         </is>
       </c>
       <c r="M11" s="120" t="n">
@@ -2477,11 +2477,11 @@
       </c>
       <c r="C12" s="112" t="inlineStr">
         <is>
-          <t>NakaStream</t>
+          <t>JimmyBoyyy</t>
         </is>
       </c>
       <c r="D12" s="114" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E12" s="112" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="L12" s="112" t="inlineStr">
         <is>
-          <t>Wingobear</t>
+          <t>Pepito_kawazakii</t>
         </is>
       </c>
       <c r="M12" s="116" t="n">
@@ -2536,11 +2536,11 @@
       </c>
       <c r="C13" s="105" t="inlineStr">
         <is>
-          <t>DFG_DrFeelgood</t>
+          <t>NakaStream</t>
         </is>
       </c>
       <c r="D13" s="118" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E13" s="105" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="I13" s="105" t="inlineStr">
         <is>
-          <t>XoTrixy</t>
+          <t>LuttiLutti</t>
         </is>
       </c>
       <c r="J13" s="118" t="n">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="L13" s="122" t="inlineStr">
         <is>
-          <t>ZeratoR</t>
+          <t>JLTootmy</t>
         </is>
       </c>
       <c r="M13" s="123" t="n">
@@ -2590,7 +2590,7 @@
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="124" t="inlineStr">
         <is>
-          <t>Dernière update le 24.02.25 à 19:01</t>
+          <t>Dernière update le 24.02.25 à 23:49</t>
         </is>
       </c>
       <c r="Q14" s="103" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D3" s="82" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="83" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="G3" s="83" t="n">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="H3" s="84" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>966</v>
+        <v>982</v>
       </c>
       <c r="E4" s="91" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="G4" s="91" t="n">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="H4" s="92" t="inlineStr">
         <is>
@@ -1163,11 +1163,11 @@
       </c>
       <c r="I4" s="91" t="inlineStr">
         <is>
-          <t>Kaatsup</t>
+          <t>Bytell2</t>
         </is>
       </c>
       <c r="J4" s="93" t="n">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="K4" s="91" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="P4" s="91" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="78" t="n"/>
     </row>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D5" s="96" t="n">
-        <v>946</v>
+        <v>970</v>
       </c>
       <c r="E5" s="83" t="inlineStr">
         <is>
@@ -1232,11 +1232,11 @@
       </c>
       <c r="I5" s="83" t="inlineStr">
         <is>
-          <t>Bytell2</t>
+          <t>Kaatsup</t>
         </is>
       </c>
       <c r="J5" s="98" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K5" s="83" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="P5" s="83" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="78" t="n"/>
     </row>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="D6" s="93" t="n">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="E6" s="91" t="inlineStr">
         <is>
@@ -1288,11 +1288,11 @@
       </c>
       <c r="F6" s="91" t="inlineStr">
         <is>
-          <t>NakaStream</t>
+          <t>Gom4rt_</t>
         </is>
       </c>
       <c r="G6" s="91" t="n">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="H6" s="92" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D7" s="98" t="n">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="E7" s="83" t="inlineStr">
         <is>
@@ -1357,11 +1357,11 @@
       </c>
       <c r="F7" s="83" t="inlineStr">
         <is>
-          <t>Gom4rt_</t>
+          <t>NakaStream</t>
         </is>
       </c>
       <c r="G7" s="83" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="H7" s="97" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="G10" s="91" t="n">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="H10" s="92" t="inlineStr">
         <is>
@@ -1640,11 +1640,11 @@
       </c>
       <c r="L11" s="83" t="inlineStr">
         <is>
-          <t>Horty_</t>
+          <t>Maxouzboub</t>
         </is>
       </c>
       <c r="M11" s="83" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N11" s="83" t="n"/>
       <c r="O11" s="83" t="n"/>
@@ -1699,11 +1699,11 @@
       </c>
       <c r="L12" s="91" t="inlineStr">
         <is>
-          <t>Maxouzboub</t>
+          <t>Horty_</t>
         </is>
       </c>
       <c r="M12" s="91" t="n">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="N12" s="91" t="n"/>
       <c r="O12" s="91" t="n"/>
@@ -1773,7 +1773,7 @@
       <c r="A14" s="78" t="n"/>
       <c r="B14" s="101" t="inlineStr">
         <is>
-          <t>Dernière update le 24.02.25 à 23:49</t>
+          <t>Dernière update le 25.02.25 à 01:23</t>
         </is>
       </c>
       <c r="Q14" s="78" t="n"/>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="D3" s="82" t="n">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="E3" s="105" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E4" s="112" t="inlineStr">
         <is>
@@ -2023,11 +2023,11 @@
       </c>
       <c r="C5" s="95" t="inlineStr">
         <is>
-          <t>Nikof_</t>
+          <t>HexakiI</t>
         </is>
       </c>
       <c r="D5" s="96" t="n">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="E5" s="105" t="inlineStr">
         <is>
@@ -2092,11 +2092,11 @@
       </c>
       <c r="C6" s="112" t="inlineStr">
         <is>
-          <t>HexakiI</t>
+          <t>Nikof_</t>
         </is>
       </c>
       <c r="D6" s="114" t="n">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="E6" s="112" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="L6" s="112" t="inlineStr">
         <is>
-          <t>nemenems</t>
+          <t>Maxouzboub</t>
         </is>
       </c>
       <c r="M6" s="116" t="n">
@@ -2174,11 +2174,11 @@
       </c>
       <c r="F7" s="105" t="inlineStr">
         <is>
-          <t>Bebesukita</t>
+          <t>Brybry_</t>
         </is>
       </c>
       <c r="G7" s="105" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H7" s="117" t="inlineStr">
         <is>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="L7" s="105" t="inlineStr">
         <is>
-          <t>Horty_</t>
+          <t>nemenems</t>
         </is>
       </c>
       <c r="M7" s="120" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" s="105" t="inlineStr">
         <is>
@@ -2243,11 +2243,11 @@
       </c>
       <c r="F8" s="112" t="inlineStr">
         <is>
-          <t>Brybry_</t>
+          <t>Bebesukita</t>
         </is>
       </c>
       <c r="G8" s="112" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8" s="113" t="inlineStr">
         <is>
@@ -2269,11 +2269,11 @@
       </c>
       <c r="L8" s="112" t="inlineStr">
         <is>
-          <t>Maxouzboub</t>
+          <t>Horty_</t>
         </is>
       </c>
       <c r="M8" s="116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="112" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="D11" s="118" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E11" s="105" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="D12" s="114" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="112" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="124" t="inlineStr">
         <is>
-          <t>Dernière update le 24.02.25 à 23:49</t>
+          <t>Dernière update le 25.02.25 à 01:23</t>
         </is>
       </c>
       <c r="Q14" s="103" t="n"/>
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="D3" s="82" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E3" s="128" t="inlineStr">
         <is>
@@ -2723,11 +2723,11 @@
       </c>
       <c r="F3" s="128" t="inlineStr">
         <is>
-          <t>MoMaN_uS</t>
+          <t>JimmyBoyyy</t>
         </is>
       </c>
       <c r="G3" s="128" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3" s="129" t="inlineStr">
         <is>
@@ -2736,11 +2736,11 @@
       </c>
       <c r="I3" s="130" t="inlineStr">
         <is>
-          <t>Gom4rt_</t>
+          <t>Hiro_Ammar</t>
         </is>
       </c>
       <c r="J3" s="131" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" s="132" t="inlineStr">
         <is>
@@ -2749,11 +2749,11 @@
       </c>
       <c r="L3" s="133" t="inlineStr">
         <is>
-          <t>Brybry_</t>
+          <t>CrocodyleTV</t>
         </is>
       </c>
       <c r="M3" s="134" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N3" s="128" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="O3" s="128" t="inlineStr">
         <is>
-          <t>Pepito_kawazakii</t>
+          <t>ZeratoR</t>
         </is>
       </c>
       <c r="P3" s="128" t="n">
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E4" s="135" t="inlineStr">
         <is>
@@ -2792,11 +2792,11 @@
       </c>
       <c r="F4" s="135" t="inlineStr">
         <is>
-          <t>Bebesukita</t>
+          <t>ChloeRamdani</t>
         </is>
       </c>
       <c r="G4" s="135" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" s="136" t="inlineStr">
         <is>
@@ -2805,11 +2805,11 @@
       </c>
       <c r="I4" s="135" t="inlineStr">
         <is>
-          <t>Grimkujow</t>
+          <t>Gom4rt_</t>
         </is>
       </c>
       <c r="J4" s="137" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="138" t="inlineStr">
         <is>
@@ -2818,11 +2818,11 @@
       </c>
       <c r="L4" s="135" t="inlineStr">
         <is>
-          <t>Angle_Droit</t>
+          <t>Brybry_</t>
         </is>
       </c>
       <c r="M4" s="139" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" s="135" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="O4" s="135" t="inlineStr">
         <is>
-          <t>LuttiLutti</t>
+          <t>Horty_</t>
         </is>
       </c>
       <c r="P4" s="135" t="n">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="C5" s="141" t="inlineStr">
         <is>
-          <t>DFG_DrFeelgood</t>
+          <t>aypierre</t>
         </is>
       </c>
       <c r="D5" s="142" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E5" s="128" t="inlineStr">
         <is>
@@ -2861,11 +2861,11 @@
       </c>
       <c r="F5" s="128" t="inlineStr">
         <is>
-          <t>AntoineDaniel_</t>
+          <t>Fukano</t>
         </is>
       </c>
       <c r="G5" s="128" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H5" s="143" t="inlineStr">
         <is>
@@ -2874,11 +2874,11 @@
       </c>
       <c r="I5" s="128" t="inlineStr">
         <is>
-          <t>Hiro_Ammar</t>
+          <t>Terraciid</t>
         </is>
       </c>
       <c r="J5" s="144" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="145" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="L5" s="128" t="inlineStr">
         <is>
-          <t>Onutrem</t>
+          <t>Angle_Droit</t>
         </is>
       </c>
       <c r="M5" s="146" t="n">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="O5" s="128" t="inlineStr">
         <is>
-          <t>nisqylegoat</t>
+          <t>ARELIANN</t>
         </is>
       </c>
       <c r="P5" s="128" t="n">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="D6" s="137" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E6" s="135" t="inlineStr">
         <is>
@@ -2930,11 +2930,11 @@
       </c>
       <c r="F6" s="135" t="inlineStr">
         <is>
-          <t>JimmyBoyyy</t>
+          <t>MoMaN_uS</t>
         </is>
       </c>
       <c r="G6" s="135" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H6" s="136" t="inlineStr">
         <is>
@@ -2943,11 +2943,11 @@
       </c>
       <c r="I6" s="135" t="inlineStr">
         <is>
-          <t>XoTrixy</t>
+          <t>gobgg</t>
         </is>
       </c>
       <c r="J6" s="137" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K6" s="138" t="inlineStr">
         <is>
@@ -2956,15 +2956,25 @@
       </c>
       <c r="L6" s="135" t="inlineStr">
         <is>
-          <t>KyriaaTV</t>
+          <t>Maxouzboub</t>
         </is>
       </c>
       <c r="M6" s="139" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" s="135" t="n"/>
-      <c r="O6" s="135" t="n"/>
-      <c r="P6" s="135" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="135" t="inlineStr">
+        <is>
+          <t>48.</t>
+        </is>
+      </c>
+      <c r="O6" s="135" t="inlineStr">
+        <is>
+          <t>HarryLafranc</t>
+        </is>
+      </c>
+      <c r="P6" s="135" t="n">
+        <v>0</v>
+      </c>
       <c r="Q6" s="126" t="n"/>
     </row>
     <row r="7" ht="36.75" customHeight="1" s="77">
@@ -2976,11 +2986,11 @@
       </c>
       <c r="C7" s="128" t="inlineStr">
         <is>
-          <t>SakorRos</t>
+          <t>DFG_DrFeelgood</t>
         </is>
       </c>
       <c r="D7" s="144" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E7" s="128" t="inlineStr">
         <is>
@@ -2989,11 +2999,11 @@
       </c>
       <c r="F7" s="128" t="inlineStr">
         <is>
-          <t>Bytell2</t>
+          <t>NakaStream</t>
         </is>
       </c>
       <c r="G7" s="128" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H7" s="143" t="inlineStr">
         <is>
@@ -3006,7 +3016,7 @@
         </is>
       </c>
       <c r="J7" s="144" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K7" s="145" t="inlineStr">
         <is>
@@ -3015,15 +3025,25 @@
       </c>
       <c r="L7" s="128" t="inlineStr">
         <is>
-          <t>Elspawn</t>
+          <t>Onutrem</t>
         </is>
       </c>
       <c r="M7" s="146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="128" t="n"/>
-      <c r="O7" s="128" t="n"/>
-      <c r="P7" s="128" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="N7" s="128" t="inlineStr">
+        <is>
+          <t>49.</t>
+        </is>
+      </c>
+      <c r="O7" s="128" t="inlineStr">
+        <is>
+          <t>Pepito_kawazakii</t>
+        </is>
+      </c>
+      <c r="P7" s="128" t="n">
+        <v>0</v>
+      </c>
       <c r="Q7" s="126" t="n"/>
     </row>
     <row r="8" ht="36.75" customHeight="1" s="77">
@@ -3039,7 +3059,7 @@
         </is>
       </c>
       <c r="D8" s="137" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E8" s="135" t="inlineStr">
         <is>
@@ -3048,11 +3068,11 @@
       </c>
       <c r="F8" s="135" t="inlineStr">
         <is>
-          <t>NakaStream</t>
+          <t>AntoineDaniel_</t>
         </is>
       </c>
       <c r="G8" s="135" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H8" s="136" t="inlineStr">
         <is>
@@ -3061,11 +3081,11 @@
       </c>
       <c r="I8" s="135" t="inlineStr">
         <is>
-          <t>LadySundae</t>
+          <t>XoTrixy</t>
         </is>
       </c>
       <c r="J8" s="137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K8" s="138" t="inlineStr">
         <is>
@@ -3074,15 +3094,25 @@
       </c>
       <c r="L8" s="135" t="inlineStr">
         <is>
-          <t>Maxouzboub</t>
+          <t>KyriaaTV</t>
         </is>
       </c>
       <c r="M8" s="139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="135" t="n"/>
-      <c r="O8" s="135" t="n"/>
-      <c r="P8" s="135" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="N8" s="135" t="inlineStr">
+        <is>
+          <t>50.</t>
+        </is>
+      </c>
+      <c r="O8" s="135" t="inlineStr">
+        <is>
+          <t>nisqylegoat</t>
+        </is>
+      </c>
+      <c r="P8" s="135" t="n">
+        <v>0</v>
+      </c>
       <c r="Q8" s="126" t="n"/>
     </row>
     <row r="9" ht="36.75" customHeight="1" s="77">
@@ -3098,7 +3128,7 @@
         </is>
       </c>
       <c r="D9" s="144" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E9" s="128" t="inlineStr">
         <is>
@@ -3107,11 +3137,11 @@
       </c>
       <c r="F9" s="128" t="inlineStr">
         <is>
-          <t>aypierre</t>
+          <t>Bytell2</t>
         </is>
       </c>
       <c r="G9" s="128" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H9" s="143" t="inlineStr">
         <is>
@@ -3120,7 +3150,7 @@
       </c>
       <c r="I9" s="128" t="inlineStr">
         <is>
-          <t>Kaatsup</t>
+          <t>LadySundae</t>
         </is>
       </c>
       <c r="J9" s="144" t="n">
@@ -3133,7 +3163,7 @@
       </c>
       <c r="L9" s="128" t="inlineStr">
         <is>
-          <t>Wingobear</t>
+          <t>JLTootmy</t>
         </is>
       </c>
       <c r="M9" s="146" t="n">
@@ -3158,7 +3188,7 @@
         </is>
       </c>
       <c r="D10" s="137" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="135" t="inlineStr">
         <is>
@@ -3167,11 +3197,11 @@
       </c>
       <c r="F10" s="135" t="inlineStr">
         <is>
-          <t>nemenems</t>
+          <t>Theorus_</t>
         </is>
       </c>
       <c r="G10" s="135" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H10" s="136" t="inlineStr">
         <is>
@@ -3180,11 +3210,11 @@
       </c>
       <c r="I10" s="135" t="inlineStr">
         <is>
-          <t>Mynth0s</t>
+          <t>Kaatsup</t>
         </is>
       </c>
       <c r="J10" s="137" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K10" s="138" t="inlineStr">
         <is>
@@ -3193,7 +3223,7 @@
       </c>
       <c r="L10" s="135" t="inlineStr">
         <is>
-          <t>BagheraJones</t>
+          <t>Elspawn</t>
         </is>
       </c>
       <c r="M10" s="139" t="n">
@@ -3213,11 +3243,11 @@
       </c>
       <c r="C11" s="128" t="inlineStr">
         <is>
-          <t>Etoiles</t>
+          <t>SakorRos</t>
         </is>
       </c>
       <c r="D11" s="144" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E11" s="128" t="inlineStr">
         <is>
@@ -3226,11 +3256,11 @@
       </c>
       <c r="F11" s="128" t="inlineStr">
         <is>
-          <t>Theorus_</t>
+          <t>Mickaplow</t>
         </is>
       </c>
       <c r="G11" s="128" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H11" s="143" t="inlineStr">
         <is>
@@ -3239,11 +3269,11 @@
       </c>
       <c r="I11" s="128" t="inlineStr">
         <is>
-          <t>CrocodyleTV</t>
+          <t>KennyStream</t>
         </is>
       </c>
       <c r="J11" s="144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K11" s="145" t="inlineStr">
         <is>
@@ -3252,11 +3282,11 @@
       </c>
       <c r="L11" s="128" t="inlineStr">
         <is>
-          <t>ZeratoR</t>
+          <t>Wingobear</t>
         </is>
       </c>
       <c r="M11" s="146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="128" t="n"/>
       <c r="O11" s="128" t="n"/>
@@ -3272,11 +3302,11 @@
       </c>
       <c r="C12" s="135" t="inlineStr">
         <is>
-          <t>ChloeRamdani</t>
+          <t>Bebesukita</t>
         </is>
       </c>
       <c r="D12" s="137" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E12" s="135" t="inlineStr">
         <is>
@@ -3285,11 +3315,11 @@
       </c>
       <c r="F12" s="135" t="inlineStr">
         <is>
-          <t>Terraciid</t>
+          <t>nemenems</t>
         </is>
       </c>
       <c r="G12" s="135" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" s="136" t="inlineStr">
         <is>
@@ -3298,7 +3328,7 @@
       </c>
       <c r="I12" s="135" t="inlineStr">
         <is>
-          <t>KennyStream</t>
+          <t>JLKada</t>
         </is>
       </c>
       <c r="J12" s="137" t="n">
@@ -3311,11 +3341,11 @@
       </c>
       <c r="L12" s="135" t="inlineStr">
         <is>
-          <t>Horty_</t>
+          <t>BagheraJones</t>
         </is>
       </c>
       <c r="M12" s="139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="135" t="n"/>
       <c r="O12" s="135" t="n"/>
@@ -3331,11 +3361,11 @@
       </c>
       <c r="C13" s="128" t="inlineStr">
         <is>
-          <t>Fukano</t>
+          <t>Etoiles</t>
         </is>
       </c>
       <c r="D13" s="144" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="128" t="inlineStr">
         <is>
@@ -3344,11 +3374,11 @@
       </c>
       <c r="F13" s="128" t="inlineStr">
         <is>
-          <t>gobgg</t>
+          <t>Grimkujow</t>
         </is>
       </c>
       <c r="G13" s="128" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H13" s="143" t="inlineStr">
         <is>
@@ -3357,7 +3387,7 @@
       </c>
       <c r="I13" s="128" t="inlineStr">
         <is>
-          <t>Mickaplow</t>
+          <t>Mynth0s</t>
         </is>
       </c>
       <c r="J13" s="144" t="n">
@@ -3370,11 +3400,11 @@
       </c>
       <c r="L13" s="148" t="inlineStr">
         <is>
-          <t>HarryLafranc</t>
+          <t>LuttiLutti</t>
         </is>
       </c>
       <c r="M13" s="149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="128" t="n"/>
       <c r="O13" s="128" t="n"/>
@@ -3385,7 +3415,7 @@
       <c r="A14" s="126" t="n"/>
       <c r="B14" s="150" t="inlineStr">
         <is>
-          <t>Dernière update le 23.02.25 à 18:01</t>
+          <t>Dernière update le 25.02.25 à 01:23</t>
         </is>
       </c>
       <c r="Q14" s="126" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D3" s="82" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="E3" s="83" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="G3" s="83" t="n">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="H3" s="84" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="E4" s="91" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="P5" s="83" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="78" t="n"/>
     </row>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="D6" s="93" t="n">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E6" s="91" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="P6" s="91" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="78" t="n"/>
     </row>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="G10" s="91" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="H10" s="92" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       <c r="A14" s="78" t="n"/>
       <c r="B14" s="101" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 01:23</t>
+          <t>Dernière update le 25.02.25 à 02:00</t>
         </is>
       </c>
       <c r="Q14" s="78" t="n"/>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="D3" s="82" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E3" s="105" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="E4" s="112" t="inlineStr">
         <is>
@@ -2023,11 +2023,11 @@
       </c>
       <c r="C5" s="95" t="inlineStr">
         <is>
-          <t>HexakiI</t>
+          <t>Nikof_</t>
         </is>
       </c>
       <c r="D5" s="96" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E5" s="105" t="inlineStr">
         <is>
@@ -2092,11 +2092,11 @@
       </c>
       <c r="C6" s="112" t="inlineStr">
         <is>
-          <t>Nikof_</t>
+          <t>HexakiI</t>
         </is>
       </c>
       <c r="D6" s="114" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E6" s="112" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="F6" s="112" t="inlineStr">
         <is>
-          <t>_Linca</t>
+          <t>Bebesukita</t>
         </is>
       </c>
       <c r="G6" s="112" t="n">
@@ -2174,11 +2174,11 @@
       </c>
       <c r="F7" s="105" t="inlineStr">
         <is>
-          <t>Brybry_</t>
+          <t>_Linca</t>
         </is>
       </c>
       <c r="G7" s="105" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H7" s="117" t="inlineStr">
         <is>
@@ -2243,11 +2243,11 @@
       </c>
       <c r="F8" s="112" t="inlineStr">
         <is>
-          <t>Bebesukita</t>
+          <t>Brybry_</t>
         </is>
       </c>
       <c r="G8" s="112" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H8" s="113" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="124" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 01:23</t>
+          <t>Dernière update le 25.02.25 à 02:00</t>
         </is>
       </c>
       <c r="Q14" s="103" t="n"/>
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="D3" s="82" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" s="128" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="L3" s="133" t="inlineStr">
         <is>
-          <t>CrocodyleTV</t>
+          <t>Mynth0s</t>
         </is>
       </c>
       <c r="M3" s="134" t="n">
@@ -2818,11 +2818,11 @@
       </c>
       <c r="L4" s="135" t="inlineStr">
         <is>
-          <t>Brybry_</t>
+          <t>CrocodyleTV</t>
         </is>
       </c>
       <c r="M4" s="139" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" s="135" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="I11" s="128" t="inlineStr">
         <is>
-          <t>KennyStream</t>
+          <t>Brybry_</t>
         </is>
       </c>
       <c r="J11" s="144" t="n">
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="D12" s="137" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="135" t="inlineStr">
         <is>
@@ -3328,11 +3328,11 @@
       </c>
       <c r="I12" s="135" t="inlineStr">
         <is>
-          <t>JLKada</t>
+          <t>KennyStream</t>
         </is>
       </c>
       <c r="J12" s="137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K12" s="138" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I13" s="128" t="inlineStr">
         <is>
-          <t>Mynth0s</t>
+          <t>JLKada</t>
         </is>
       </c>
       <c r="J13" s="144" t="n">
@@ -3415,7 +3415,7 @@
       <c r="A14" s="126" t="n"/>
       <c r="B14" s="150" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 01:23</t>
+          <t>Dernière update le 25.02.25 à 02:00</t>
         </is>
       </c>
       <c r="Q14" s="126" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -1773,7 +1773,7 @@
       <c r="A14" s="78" t="n"/>
       <c r="B14" s="101" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 02:00</t>
+          <t>Dernière update le 25.02.25 à 02:26</t>
         </is>
       </c>
       <c r="Q14" s="78" t="n"/>
@@ -2590,7 +2590,7 @@
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="124" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 02:00</t>
+          <t>Dernière update le 25.02.25 à 02:26</t>
         </is>
       </c>
       <c r="Q14" s="103" t="n"/>
@@ -3415,7 +3415,7 @@
       <c r="A14" s="126" t="n"/>
       <c r="B14" s="150" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 02:00</t>
+          <t>Dernière update le 25.02.25 à 02:26</t>
         </is>
       </c>
       <c r="Q14" s="126" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -1081,11 +1081,11 @@
       </c>
       <c r="F3" s="83" t="inlineStr">
         <is>
-          <t>Bebesukita</t>
+          <t>MoMaN_uS</t>
         </is>
       </c>
       <c r="G3" s="83" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H3" s="84" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="O3" s="83" t="inlineStr">
         <is>
-          <t>Pepito_kawazakii</t>
+          <t>JLKada</t>
         </is>
       </c>
       <c r="P3" s="83" t="n">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="E4" s="91" t="inlineStr">
         <is>
@@ -1189,11 +1189,11 @@
       </c>
       <c r="O4" s="91" t="inlineStr">
         <is>
-          <t>JLKada</t>
+          <t>Pepito_kawazakii</t>
         </is>
       </c>
       <c r="P4" s="91" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="78" t="n"/>
     </row>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="P5" s="83" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="78" t="n"/>
     </row>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="D6" s="93" t="n">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="E6" s="91" t="inlineStr">
         <is>
@@ -1452,11 +1452,11 @@
       </c>
       <c r="L8" s="91" t="inlineStr">
         <is>
-          <t>Wingobear</t>
+          <t>Hiro_Ammar</t>
         </is>
       </c>
       <c r="M8" s="91" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N8" s="91" t="inlineStr">
         <is>
@@ -1495,11 +1495,11 @@
       </c>
       <c r="F9" s="83" t="inlineStr">
         <is>
-          <t>_Linca</t>
+          <t>Brybry_</t>
         </is>
       </c>
       <c r="G9" s="83" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H9" s="97" t="inlineStr">
         <is>
@@ -1521,11 +1521,11 @@
       </c>
       <c r="L9" s="83" t="inlineStr">
         <is>
-          <t>Hiro_Ammar</t>
+          <t>Wingobear</t>
         </is>
       </c>
       <c r="M9" s="83" t="n">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="N9" s="83" t="n"/>
       <c r="O9" s="83" t="n"/>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="F10" s="91" t="inlineStr">
         <is>
-          <t>Brybry_</t>
+          <t>_Linca</t>
         </is>
       </c>
       <c r="G10" s="91" t="n">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="H10" s="92" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C13" s="83" t="inlineStr">
         <is>
-          <t>MoMaN_uS</t>
+          <t>Bebesukita</t>
         </is>
       </c>
       <c r="D13" s="98" t="n">
@@ -1773,7 +1773,7 @@
       <c r="A14" s="78" t="n"/>
       <c r="B14" s="101" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 02:26</t>
+          <t>Dernière update le 25.02.25 à 03:54</t>
         </is>
       </c>
       <c r="Q14" s="78" t="n"/>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="E4" s="112" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="O4" s="112" t="inlineStr">
         <is>
-          <t>ZeratoR</t>
+          <t>Pepito_kawazakii</t>
         </is>
       </c>
       <c r="P4" s="112" t="n">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="D5" s="96" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="E5" s="105" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="F5" s="105" t="inlineStr">
         <is>
-          <t>Fukano</t>
+          <t>Bebesukita</t>
         </is>
       </c>
       <c r="G5" s="105" t="n">
@@ -2075,11 +2075,11 @@
       </c>
       <c r="O5" s="105" t="inlineStr">
         <is>
-          <t>HarryLafranc</t>
+          <t>ZeratoR</t>
         </is>
       </c>
       <c r="P5" s="105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="103" t="n"/>
     </row>
@@ -2105,11 +2105,11 @@
       </c>
       <c r="F6" s="112" t="inlineStr">
         <is>
-          <t>Bebesukita</t>
+          <t>Fukano</t>
         </is>
       </c>
       <c r="G6" s="112" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="113" t="inlineStr">
         <is>
@@ -2131,11 +2131,11 @@
       </c>
       <c r="L6" s="112" t="inlineStr">
         <is>
-          <t>Maxouzboub</t>
+          <t>JLTootmy</t>
         </is>
       </c>
       <c r="M6" s="116" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N6" s="112" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="O7" s="105" t="inlineStr">
         <is>
-          <t>JLKada</t>
+          <t>HarryLafranc</t>
         </is>
       </c>
       <c r="P7" s="105" t="n">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G8" s="112" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" s="113" t="inlineStr">
         <is>
@@ -2269,11 +2269,11 @@
       </c>
       <c r="L8" s="112" t="inlineStr">
         <is>
-          <t>Horty_</t>
+          <t>Maxouzboub</t>
         </is>
       </c>
       <c r="M8" s="116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N8" s="112" t="inlineStr">
         <is>
@@ -2338,11 +2338,11 @@
       </c>
       <c r="L9" s="105" t="inlineStr">
         <is>
-          <t>Mynth0s</t>
+          <t>JLKada</t>
         </is>
       </c>
       <c r="M9" s="120" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" s="105" t="n"/>
       <c r="O9" s="105" t="n"/>
@@ -2398,11 +2398,11 @@
       </c>
       <c r="L10" s="112" t="inlineStr">
         <is>
-          <t>Elspawn</t>
+          <t>Horty_</t>
         </is>
       </c>
       <c r="M10" s="116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" s="112" t="n"/>
       <c r="O10" s="112" t="n"/>
@@ -2457,11 +2457,11 @@
       </c>
       <c r="L11" s="105" t="inlineStr">
         <is>
-          <t>BagheraJones</t>
+          <t>Mynth0s</t>
         </is>
       </c>
       <c r="M11" s="120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="105" t="n"/>
       <c r="O11" s="105" t="n"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="L12" s="112" t="inlineStr">
         <is>
-          <t>Pepito_kawazakii</t>
+          <t>Elspawn</t>
         </is>
       </c>
       <c r="M12" s="116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="112" t="n"/>
       <c r="O12" s="112" t="n"/>
@@ -2575,11 +2575,11 @@
       </c>
       <c r="L13" s="122" t="inlineStr">
         <is>
-          <t>JLTootmy</t>
+          <t>BagheraJones</t>
         </is>
       </c>
       <c r="M13" s="123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="105" t="n"/>
       <c r="O13" s="105" t="n"/>
@@ -2590,7 +2590,7 @@
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="124" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 02:26</t>
+          <t>Dernière update le 25.02.25 à 03:54</t>
         </is>
       </c>
       <c r="Q14" s="103" t="n"/>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="J3" s="131" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" s="132" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C7" s="128" t="inlineStr">
         <is>
-          <t>DFG_DrFeelgood</t>
+          <t>Nikof_</t>
         </is>
       </c>
       <c r="D7" s="144" t="n">
@@ -3055,11 +3055,11 @@
       </c>
       <c r="C8" s="135" t="inlineStr">
         <is>
-          <t>Nikof_</t>
+          <t>DFG_DrFeelgood</t>
         </is>
       </c>
       <c r="D8" s="137" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="135" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="I8" s="135" t="inlineStr">
         <is>
-          <t>XoTrixy</t>
+          <t>Brybry_</t>
         </is>
       </c>
       <c r="J8" s="137" t="n">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="L8" s="135" t="inlineStr">
         <is>
-          <t>KyriaaTV</t>
+          <t>JLTootmy</t>
         </is>
       </c>
       <c r="M8" s="139" t="n">
@@ -3150,11 +3150,11 @@
       </c>
       <c r="I9" s="128" t="inlineStr">
         <is>
-          <t>LadySundae</t>
+          <t>XoTrixy</t>
         </is>
       </c>
       <c r="J9" s="144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9" s="145" t="inlineStr">
         <is>
@@ -3163,11 +3163,11 @@
       </c>
       <c r="L9" s="128" t="inlineStr">
         <is>
-          <t>JLTootmy</t>
+          <t>KyriaaTV</t>
         </is>
       </c>
       <c r="M9" s="146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="128" t="n"/>
       <c r="O9" s="128" t="n"/>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="I10" s="135" t="inlineStr">
         <is>
-          <t>Kaatsup</t>
+          <t>LadySundae</t>
         </is>
       </c>
       <c r="J10" s="137" t="n">
@@ -3269,11 +3269,11 @@
       </c>
       <c r="I11" s="128" t="inlineStr">
         <is>
-          <t>Brybry_</t>
+          <t>Kaatsup</t>
         </is>
       </c>
       <c r="J11" s="144" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K11" s="145" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="D12" s="137" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="135" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="I12" s="135" t="inlineStr">
         <is>
-          <t>KennyStream</t>
+          <t>JLKada</t>
         </is>
       </c>
       <c r="J12" s="137" t="n">
@@ -3387,11 +3387,11 @@
       </c>
       <c r="I13" s="128" t="inlineStr">
         <is>
-          <t>JLKada</t>
+          <t>KennyStream</t>
         </is>
       </c>
       <c r="J13" s="144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K13" s="147" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
       <c r="A14" s="126" t="n"/>
       <c r="B14" s="150" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 02:26</t>
+          <t>Dernière update le 25.02.25 à 03:54</t>
         </is>
       </c>
       <c r="Q14" s="126" t="n"/>
